--- a/Data/Processed/Angiosperms/missing_powo_ipni/Linderniaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Linderniaceae.xlsx
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
